--- a/12-Month_Cash_Flow_Projection.xlsx
+++ b/12-Month_Cash_Flow_Projection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elbert\OneDrive\Desktop\Files for Livermorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1692519D-BF77-4283-900B-0FBA7F016490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A7FCC-3B49-4418-BED5-F8D2208138BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7958900-4B6C-4CA3-919C-FAD9B773E9BA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Month</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Expenses</t>
-  </si>
-  <si>
-    <t>Net Cash Flow</t>
-  </si>
-  <si>
-    <t>Cumulative Cash</t>
   </si>
 </sst>
 </file>
@@ -896,13 +890,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DBD3F5-929D-44FE-8093-C5F56EF7B868}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,14 +908,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45778</v>
       </c>
@@ -929,14 +919,8 @@
       <c r="C2">
         <v>20000</v>
       </c>
-      <c r="D2">
-        <v>15795</v>
-      </c>
-      <c r="E2">
-        <v>-34205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45809</v>
       </c>
@@ -946,14 +930,8 @@
       <c r="C3">
         <v>20000</v>
       </c>
-      <c r="D3">
-        <v>860</v>
-      </c>
-      <c r="E3">
-        <v>-33345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45839</v>
       </c>
@@ -963,14 +941,8 @@
       <c r="C4">
         <v>20000</v>
       </c>
-      <c r="D4">
-        <v>38158</v>
-      </c>
-      <c r="E4">
-        <v>4813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45870</v>
       </c>
@@ -980,14 +952,8 @@
       <c r="C5">
         <v>20000</v>
       </c>
-      <c r="D5">
-        <v>11284</v>
-      </c>
-      <c r="E5">
-        <v>16097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45901</v>
       </c>
@@ -997,14 +963,8 @@
       <c r="C6">
         <v>20000</v>
       </c>
-      <c r="D6">
-        <v>6265</v>
-      </c>
-      <c r="E6">
-        <v>22362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45931</v>
       </c>
@@ -1014,14 +974,8 @@
       <c r="C7">
         <v>20000</v>
       </c>
-      <c r="D7">
-        <v>16850</v>
-      </c>
-      <c r="E7">
-        <v>39212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45962</v>
       </c>
@@ -1031,14 +985,8 @@
       <c r="C8">
         <v>20000</v>
       </c>
-      <c r="D8">
-        <v>37194</v>
-      </c>
-      <c r="E8">
-        <v>76406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45992</v>
       </c>
@@ -1048,14 +996,8 @@
       <c r="C9">
         <v>20000</v>
       </c>
-      <c r="D9">
-        <v>21962</v>
-      </c>
-      <c r="E9">
-        <v>98368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46023</v>
       </c>
@@ -1065,14 +1007,8 @@
       <c r="C10">
         <v>20000</v>
       </c>
-      <c r="D10">
-        <v>16023</v>
-      </c>
-      <c r="E10">
-        <v>114391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46054</v>
       </c>
@@ -1082,14 +1018,8 @@
       <c r="C11">
         <v>20000</v>
       </c>
-      <c r="D11">
-        <v>1685</v>
-      </c>
-      <c r="E11">
-        <v>116076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>46082</v>
       </c>
@@ -1099,14 +1029,8 @@
       <c r="C12">
         <v>20000</v>
       </c>
-      <c r="D12">
-        <v>769</v>
-      </c>
-      <c r="E12">
-        <v>116845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>46113</v>
       </c>
@@ -1115,12 +1039,6 @@
       </c>
       <c r="C13">
         <v>20000</v>
-      </c>
-      <c r="D13">
-        <v>2433</v>
-      </c>
-      <c r="E13">
-        <v>119278</v>
       </c>
     </row>
   </sheetData>
